--- a/doc/データベース設計書.xlsx
+++ b/doc/データベース設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
   <si>
     <t>データベース名</t>
     <rPh sb="6" eb="7">
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>integer(1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -883,15 +879,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -901,15 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -923,6 +916,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1210,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1242,25 +1238,25 @@
       <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
@@ -1272,12 +1268,12 @@
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
@@ -1289,14 +1285,14 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1354,10 +1350,10 @@
     </row>
     <row r="10" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1599,25 +1595,25 @@
       <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
@@ -1629,12 +1625,12 @@
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
@@ -1646,14 +1642,14 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1693,17 +1689,17 @@
         <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1932,25 +1928,25 @@
       <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
@@ -1962,12 +1958,12 @@
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
@@ -1979,14 +1975,14 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2026,7 +2022,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="27"/>
@@ -2048,10 +2044,10 @@
     </row>
     <row r="10" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2061,10 +2057,10 @@
     </row>
     <row r="11" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2074,10 +2070,10 @@
     </row>
     <row r="12" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2087,7 +2083,7 @@
     </row>
     <row r="13" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>36</v>
@@ -2095,7 +2091,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="27"/>
@@ -2294,25 +2290,25 @@
       <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
@@ -2324,12 +2320,12 @@
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
@@ -2341,14 +2337,14 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2393,7 +2389,7 @@
     </row>
     <row r="9" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>27</v>
@@ -2406,7 +2402,7 @@
     </row>
     <row r="10" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>30</v>
@@ -2654,25 +2650,25 @@
       <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
@@ -2684,12 +2680,12 @@
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
@@ -2701,14 +2697,14 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2736,7 +2732,7 @@
     </row>
     <row r="8" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>26</v>
@@ -2753,7 +2749,7 @@
     </row>
     <row r="9" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>20</v>
@@ -2766,10 +2762,10 @@
     </row>
     <row r="10" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2779,7 +2775,7 @@
     </row>
     <row r="11" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>31</v>
@@ -2792,7 +2788,7 @@
     </row>
     <row r="12" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>31</v>
@@ -2805,7 +2801,7 @@
     </row>
     <row r="13" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>31</v>
@@ -2818,7 +2814,7 @@
     </row>
     <row r="14" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>20</v>
@@ -2986,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3018,25 +3014,25 @@
       <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
@@ -3048,12 +3044,12 @@
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
@@ -3065,14 +3061,14 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3100,7 +3096,7 @@
     </row>
     <row r="8" spans="1:9" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>20</v>
@@ -3127,7 +3123,7 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="27"/>
@@ -3345,14 +3341,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
@@ -3360,23 +3356,23 @@
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
